--- a/rm/Java Road Map.xlsx
+++ b/rm/Java Road Map.xlsx
@@ -130,7 +130,7 @@
     <t xml:space="preserve">https://www.youtube.com/playlist?list=PLv2-IhRmhbyTsIWz57SxNpMpSB_QOX9JY</t>
   </si>
   <si>
-    <t xml:space="preserve">Sucess: if we follow one path...</t>
+    <t xml:space="preserve">Success: if we follow one path...</t>
   </si>
 </sst>
 </file>
@@ -140,7 +140,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -172,6 +172,14 @@
     <font>
       <sz val="10"/>
       <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="15"/>
+      <color rgb="FFC9211E"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
@@ -239,7 +247,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -281,6 +289,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -293,6 +305,66 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FFC9211E"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -409,7 +481,7 @@
   </sheetPr>
   <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C21" activeCellId="0" sqref="C21"/>
     </sheetView>
   </sheetViews>
@@ -417,7 +489,7 @@
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="7.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="24.21"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="51.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="62.33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="15.49"/>
   </cols>
   <sheetData>
@@ -663,8 +735,8 @@
       <c r="E18" s="5"/>
       <c r="F18" s="5"/>
     </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C19" s="2" t="s">
+    <row r="19" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C19" s="11" t="s">
         <v>36</v>
       </c>
     </row>
